--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>851092.6012277325</v>
+        <v>849213.7344207409</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9736687.698466724</v>
+        <v>9736687.698466714</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>61.52924606910248</v>
+        <v>402.0769701370787</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>16.39649885149639</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>187.3327902942502</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>232.8691974152273</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -949,7 +949,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>16.14197242058547</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>91.16384067914737</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>302.3398778399651</v>
+        <v>371.8675324645953</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1347,7 +1347,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>59.21564242216188</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>291.6114122919806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.1553032827624</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.1446553752395</v>
+        <v>100.5054824258503</v>
       </c>
       <c r="T11" t="n">
-        <v>217.1444741224694</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4379860561607</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>24.33159563455664</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.2868759475303</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>71.33506863921954</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>179.4563186077945</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>235.9098400730157</v>
@@ -1587,13 +1587,13 @@
         <v>279.9542926402726</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>220.8158326543542</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1609,16 +1609,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>119.1446553752395</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.1444741224694</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>59.96232141958329</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.43749854577892</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.1763033032977</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.5240263750913</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>71.33506863921954</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>179.4563186077945</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>235.9098400730157</v>
@@ -1827,7 +1827,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>403.9922416795415</v>
+        <v>403.9922416795421</v>
       </c>
       <c r="H17" t="n">
         <v>301.1553032827624</v>
@@ -1897,7 +1897,7 @@
         <v>119.1446553752395</v>
       </c>
       <c r="T17" t="n">
-        <v>217.1444741224694</v>
+        <v>217.1444741224691</v>
       </c>
       <c r="U17" t="n">
         <v>254.4379860561607</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>101.9482527149055</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2016,10 +2016,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.2868759475303</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.5240263750913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>106.4310844991793</v>
@@ -2055,10 +2055,10 @@
         <v>179.4563186077945</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>235.9098400730157</v>
       </c>
       <c r="U19" t="n">
-        <v>56.95954297529331</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>403.9922416795421</v>
       </c>
       <c r="H20" t="n">
-        <v>301.1553032827618</v>
+        <v>301.1553032827624</v>
       </c>
       <c r="I20" t="n">
-        <v>60.47694109547223</v>
+        <v>60.47694109547164</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>146.2698230957201</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.2868759475303</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.5240263750913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>106.4310844991793</v>
@@ -2292,22 +2292,22 @@
         <v>179.4563186077945</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>235.9098400730157</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9542926402726</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>88.49309503397107</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.2868759475303</v>
       </c>
       <c r="H25" t="n">
-        <v>61.45575937199952</v>
+        <v>145.5240263750913</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>235.9098400730157</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9542926402726</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>186.8004221840723</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678434</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2715,13 +2715,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2730,10 +2730,10 @@
         <v>165.2868759475303</v>
       </c>
       <c r="H28" t="n">
-        <v>145.5240263750913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>36.22381420046626</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.33506863921954</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.4563186077945</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>279.9542926402726</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462181</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.567669657246024</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678434</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2955,13 +2955,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>7.114944886694678</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>106.4310844991793</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.5805623401716</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>235.9098400730157</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.2868759475303</v>
+        <v>129.5989565064796</v>
       </c>
       <c r="H34" t="n">
         <v>145.5240263750913</v>
       </c>
       <c r="I34" t="n">
-        <v>106.4310844991793</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.33506863921954</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>235.9098400730157</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9542926402726</v>
       </c>
       <c r="V34" t="n">
-        <v>14.44454770472439</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>141.1617239961806</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3444,7 +3444,7 @@
         <v>145.5240263750913</v>
       </c>
       <c r="I37" t="n">
-        <v>106.4310844991793</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>71.33506863921954</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>179.4563186077945</v>
@@ -3480,10 +3480,10 @@
         <v>235.9098400730157</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9542926402726</v>
       </c>
       <c r="V37" t="n">
-        <v>57.52715416794943</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>90.86588883134769</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>179.4563186077945</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>235.9098400730157</v>
       </c>
       <c r="U40" t="n">
-        <v>85.77961634394389</v>
+        <v>279.9542926402726</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>392.5647472501417</v>
+        <v>331.1791003997839</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.1444741224694</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4379860561607</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>90.00006759818947</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>179.4563186077945</v>
       </c>
       <c r="T43" t="n">
-        <v>162.2252989939679</v>
+        <v>235.9098400730157</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9542926402726</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>403.2658873081464</v>
       </c>
       <c r="G44" t="n">
-        <v>386.8650699901672</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>179.4563186077945</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>235.9098400730157</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>45.46107201664289</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>17.88249708685629</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.1822479010976</v>
+        <v>1681.430108024969</v>
       </c>
       <c r="C2" t="n">
-        <v>530.0576572143677</v>
+        <v>1675.345921378643</v>
       </c>
       <c r="D2" t="n">
-        <v>529.6341313478323</v>
+        <v>1674.922395512108</v>
       </c>
       <c r="E2" t="n">
-        <v>467.4833777426783</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,10 +4333,10 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
         <v>1054.568412147452</v>
@@ -4345,7 +4345,7 @@
         <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1347.00642135623</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>946.3630235251831</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>946.3630235251831</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.8908561961008</v>
+        <v>350.8671855012354</v>
       </c>
       <c r="C4" t="n">
-        <v>365.8908561961008</v>
+        <v>350.8671855012354</v>
       </c>
       <c r="D4" t="n">
-        <v>206.3962115190108</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E4" t="n">
-        <v>206.3962115190108</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1554.601862198435</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1554.601862198435</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1554.601862198435</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1554.601862198435</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>1280.716117137957</v>
       </c>
       <c r="W4" t="n">
-        <v>553.5905625901452</v>
+        <v>1001.646452646832</v>
       </c>
       <c r="X4" t="n">
-        <v>553.5905625901452</v>
+        <v>763.3025905065151</v>
       </c>
       <c r="Y4" t="n">
-        <v>553.5905625901452</v>
+        <v>538.5668918952798</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1596.954875986598</v>
+        <v>570.6426643811657</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.830285299868</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D5" t="n">
-        <v>782.3663553929287</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>772.0665439502294</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
         <v>536.8451324196967</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1603.135651610684</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>1603.135651610684</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>1603.135651610684</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.135651610684</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N6" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.454895038016</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>325.3615225997325</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>325.3615225997325</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>588.5395825927103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>496.454895038016</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="X7" t="n">
-        <v>496.454895038016</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.454895038016</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2082.073505856017</v>
+        <v>536.1418438606936</v>
       </c>
       <c r="C8" t="n">
-        <v>1776.679689856052</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D8" t="n">
-        <v>1372.215759949112</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>957.8755444660092</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
         <v>128.1168483125289</v>
@@ -4804,22 +4804,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N8" t="n">
+        <v>692.8507596625949</v>
+      </c>
+      <c r="O8" t="n">
         <v>1209.69369432892</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
         <v>1726.536628995245</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>946.3630235251831</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1145.223475107064</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>871.3377300465861</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>592.2680655554605</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>532.4542853310545</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>446.2290155365415</v>
+        <v>1585.796919109152</v>
       </c>
       <c r="C11" t="n">
-        <v>446.2290155365415</v>
+        <v>1585.796919109152</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>1181.332989202212</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>766.9927737191089</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>345.9623616727964</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>345.9623616727964</v>
       </c>
       <c r="H11" t="n">
         <v>41.76508562960205</v>
@@ -5041,25 +5041,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>350.4625894670559</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>533.2836506026947</v>
       </c>
       <c r="L11" t="n">
-        <v>48.58987871796397</v>
+        <v>540.1084436910567</v>
       </c>
       <c r="M11" t="n">
-        <v>565.4328133842893</v>
+        <v>560.5284631635669</v>
       </c>
       <c r="N11" t="n">
-        <v>1082.275748050615</v>
+        <v>583.1474922930428</v>
       </c>
       <c r="O11" t="n">
-        <v>1599.11868271694</v>
+        <v>1099.990426959368</v>
       </c>
       <c r="P11" t="n">
-        <v>2007.35251785545</v>
+        <v>1616.833361625693</v>
       </c>
       <c r="Q11" t="n">
         <v>2007.35251785545</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>1967.906144737436</v>
+        <v>1986.733592161062</v>
       </c>
       <c r="T11" t="n">
-        <v>1748.568292088477</v>
+        <v>1986.733592161062</v>
       </c>
       <c r="U11" t="n">
-        <v>1491.560225365082</v>
+        <v>1986.733592161062</v>
       </c>
       <c r="V11" t="n">
-        <v>1141.722670701563</v>
+        <v>1986.733592161062</v>
       </c>
       <c r="W11" t="n">
-        <v>1141.722670701563</v>
+        <v>1986.733592161062</v>
       </c>
       <c r="X11" t="n">
-        <v>1141.722670701563</v>
+        <v>1986.733592161062</v>
       </c>
       <c r="Y11" t="n">
-        <v>740.7859976496533</v>
+        <v>1585.796919109152</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>267.0449362268208</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>267.2686736327244</v>
+        <v>553.0626042575735</v>
       </c>
       <c r="L12" t="n">
-        <v>784.1116082990497</v>
+        <v>572.1240759785592</v>
       </c>
       <c r="M12" t="n">
-        <v>814.1949783356705</v>
+        <v>1018.906374799787</v>
       </c>
       <c r="N12" t="n">
-        <v>1331.037913001996</v>
+        <v>1535.749309466113</v>
       </c>
       <c r="O12" t="n">
-        <v>1847.880847668321</v>
+        <v>2052.592244132438</v>
       </c>
       <c r="P12" t="n">
-        <v>2013.60077916481</v>
+        <v>2064.496483170567</v>
       </c>
       <c r="Q12" t="n">
-        <v>2013.60077916481</v>
+        <v>2064.496483170567</v>
       </c>
       <c r="R12" t="n">
         <v>2064.496483170567</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.34245495743704</v>
+        <v>700.2203582276968</v>
       </c>
       <c r="C13" t="n">
-        <v>66.34245495743704</v>
+        <v>529.1269857894133</v>
       </c>
       <c r="D13" t="n">
-        <v>66.34245495743704</v>
+        <v>369.6323411123233</v>
       </c>
       <c r="E13" t="n">
-        <v>66.34245495743704</v>
+        <v>208.7215259806428</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>208.7215259806428</v>
       </c>
       <c r="G13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1856.776940372009</v>
       </c>
       <c r="R13" t="n">
-        <v>1784.721315483909</v>
+        <v>1856.776940372009</v>
       </c>
       <c r="S13" t="n">
-        <v>1603.452306789167</v>
+        <v>1856.776940372009</v>
       </c>
       <c r="T13" t="n">
-        <v>1365.159539038646</v>
+        <v>1618.484172621488</v>
       </c>
       <c r="U13" t="n">
-        <v>1082.377425260593</v>
+        <v>1335.702058843435</v>
       </c>
       <c r="V13" t="n">
-        <v>808.4916802001146</v>
+        <v>1112.655763232976</v>
       </c>
       <c r="W13" t="n">
-        <v>529.422015708989</v>
+        <v>1112.655763232976</v>
       </c>
       <c r="X13" t="n">
-        <v>291.0781535686723</v>
+        <v>1112.655763232976</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.34245495743704</v>
+        <v>887.9200646217412</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>856.3536062232714</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C14" t="n">
-        <v>446.2290155365415</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F14" t="n">
         <v>41.76508562960205</v>
@@ -5281,49 +5281,49 @@
         <v>350.4625894670559</v>
       </c>
       <c r="K14" t="n">
-        <v>350.4625894670559</v>
+        <v>867.3055241333811</v>
       </c>
       <c r="L14" t="n">
-        <v>867.3055241333811</v>
+        <v>874.1303172217431</v>
       </c>
       <c r="M14" t="n">
-        <v>887.7255436058914</v>
+        <v>894.5503366942534</v>
       </c>
       <c r="N14" t="n">
-        <v>1164.934463582425</v>
+        <v>917.1693658237292</v>
       </c>
       <c r="O14" t="n">
-        <v>1180.89219058402</v>
+        <v>1099.990426959368</v>
       </c>
       <c r="P14" t="n">
-        <v>1697.735125250346</v>
+        <v>1616.833361625693</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2007.35251785545</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1967.906144737436</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1748.568292088477</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1748.568292088477</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1748.568292088477</v>
       </c>
       <c r="W14" t="n">
-        <v>2068.154856770718</v>
+        <v>1748.568292088477</v>
       </c>
       <c r="X14" t="n">
-        <v>1667.511458939671</v>
+        <v>1347.92489425743</v>
       </c>
       <c r="Y14" t="n">
-        <v>1266.574785887761</v>
+        <v>1287.356892823507</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>267.0449362268208</v>
       </c>
       <c r="K15" t="n">
-        <v>41.98882303550562</v>
+        <v>512.4714010147228</v>
       </c>
       <c r="L15" t="n">
-        <v>61.05029475649125</v>
+        <v>531.5328727357085</v>
       </c>
       <c r="M15" t="n">
-        <v>577.8932294228165</v>
+        <v>561.6162427723292</v>
       </c>
       <c r="N15" t="n">
-        <v>1094.736164089142</v>
+        <v>1078.459177438654</v>
       </c>
       <c r="O15" t="n">
-        <v>1611.579098755467</v>
+        <v>1103.047293501026</v>
       </c>
       <c r="P15" t="n">
-        <v>2064.496483170567</v>
+        <v>1619.890228167351</v>
       </c>
       <c r="Q15" t="n">
-        <v>2064.496483170567</v>
+        <v>2013.60077916481</v>
       </c>
       <c r="R15" t="n">
         <v>2064.496483170567</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>212.8584580678856</v>
+        <v>635.7727452485963</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>464.6793728103128</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>353.3901775544565</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>353.3901775544565</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>188.7590516650478</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>188.7590516650478</v>
       </c>
       <c r="H16" t="n">
         <v>41.76508562960205</v>
@@ -5460,28 +5460,28 @@
         <v>1856.776940372009</v>
       </c>
       <c r="R16" t="n">
-        <v>1784.721315483909</v>
+        <v>1856.776940372009</v>
       </c>
       <c r="S16" t="n">
-        <v>1603.452306789167</v>
+        <v>1856.776940372009</v>
       </c>
       <c r="T16" t="n">
-        <v>1365.159539038646</v>
+        <v>1618.484172621488</v>
       </c>
       <c r="U16" t="n">
-        <v>1082.377425260593</v>
+        <v>1335.702058843435</v>
       </c>
       <c r="V16" t="n">
-        <v>808.4916802001146</v>
+        <v>1061.816313782957</v>
       </c>
       <c r="W16" t="n">
-        <v>529.422015708989</v>
+        <v>1061.816313782957</v>
       </c>
       <c r="X16" t="n">
-        <v>291.0781535686723</v>
+        <v>823.4724516426406</v>
       </c>
       <c r="Y16" t="n">
-        <v>291.0781535686723</v>
+        <v>823.4724516426406</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.652120501967</v>
+        <v>2524.652120501968</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.527529815237</v>
+        <v>2114.527529815238</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.063599908298</v>
+        <v>1710.063599908299</v>
       </c>
       <c r="E17" t="n">
         <v>1295.723384425195</v>
       </c>
       <c r="F17" t="n">
-        <v>874.6929723788821</v>
+        <v>874.6929723788828</v>
       </c>
       <c r="G17" t="n">
         <v>466.6200009854059</v>
@@ -5515,28 +5515,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J17" t="n">
-        <v>410.0324094913096</v>
+        <v>112.1786620333677</v>
       </c>
       <c r="K17" t="n">
-        <v>1029.891316335894</v>
+        <v>732.0375688779517</v>
       </c>
       <c r="L17" t="n">
-        <v>1465.082542236115</v>
+        <v>1545.984305860768</v>
       </c>
       <c r="M17" t="n">
-        <v>2354.178474912855</v>
+        <v>2435.080238537507</v>
       </c>
       <c r="N17" t="n">
-        <v>3221.961688530002</v>
+        <v>3302.863452154654</v>
       </c>
       <c r="O17" t="n">
-        <v>3973.808149818226</v>
+        <v>4054.709913442879</v>
       </c>
       <c r="P17" t="n">
-        <v>4595.324362838375</v>
+        <v>4676.226126463028</v>
       </c>
       <c r="Q17" t="n">
-        <v>4985.843519068132</v>
+        <v>5066.745282692785</v>
       </c>
       <c r="R17" t="n">
         <v>5066.745282692785</v>
@@ -5551,16 +5551,16 @@
         <v>4470.051226577765</v>
       </c>
       <c r="V17" t="n">
-        <v>4120.213671914245</v>
+        <v>4120.213671914246</v>
       </c>
       <c r="W17" t="n">
-        <v>3736.453371049414</v>
+        <v>3736.453371049415</v>
       </c>
       <c r="X17" t="n">
-        <v>3335.809973218366</v>
+        <v>3335.809973218368</v>
       </c>
       <c r="Y17" t="n">
-        <v>2934.873300166456</v>
+        <v>2934.873300166458</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J18" t="n">
-        <v>101.3349056538557</v>
+        <v>326.6147562510745</v>
       </c>
       <c r="K18" t="n">
-        <v>612.6324242818272</v>
+        <v>837.912274879046</v>
       </c>
       <c r="L18" t="n">
-        <v>631.6938960028128</v>
+        <v>856.9737466000316</v>
       </c>
       <c r="M18" t="n">
-        <v>661.7772660394336</v>
+        <v>887.0571166366524</v>
       </c>
       <c r="N18" t="n">
-        <v>1624.81190612737</v>
+        <v>923.7722051531588</v>
       </c>
       <c r="O18" t="n">
-        <v>1718.451513159233</v>
+        <v>1052.13287801217</v>
       </c>
       <c r="P18" t="n">
-        <v>1730.355752197362</v>
+        <v>1679.460048191605</v>
       </c>
       <c r="Q18" t="n">
-        <v>2124.066303194821</v>
+        <v>2073.170599189064</v>
       </c>
       <c r="R18" t="n">
         <v>2124.066303194821</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1178.921416135572</v>
+        <v>796.855670356161</v>
       </c>
       <c r="C19" t="n">
-        <v>1007.828043697288</v>
+        <v>693.8776373108019</v>
       </c>
       <c r="D19" t="n">
-        <v>848.3333990201984</v>
+        <v>534.3829926337119</v>
       </c>
       <c r="E19" t="n">
-        <v>687.4225838885178</v>
+        <v>373.4721775020314</v>
       </c>
       <c r="F19" t="n">
-        <v>522.7914579991091</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="G19" t="n">
-        <v>355.8350176480684</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="H19" t="n">
         <v>208.8410516126227</v>
@@ -5703,22 +5703,22 @@
         <v>1735.077751701521</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.077751701521</v>
+        <v>1496.784983951</v>
       </c>
       <c r="U19" t="n">
-        <v>1677.542859807285</v>
+        <v>1496.784983951</v>
       </c>
       <c r="V19" t="n">
-        <v>1403.657114746807</v>
+        <v>1222.899238890522</v>
       </c>
       <c r="W19" t="n">
-        <v>1403.657114746807</v>
+        <v>1222.899238890522</v>
       </c>
       <c r="X19" t="n">
-        <v>1403.657114746807</v>
+        <v>984.5553767502054</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.921416135572</v>
+        <v>984.5553767502054</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>466.6200009854053</v>
       </c>
       <c r="H20" t="n">
-        <v>162.4227249422115</v>
+        <v>162.4227249422109</v>
       </c>
       <c r="I20" t="n">
         <v>101.3349056538557</v>
@@ -5755,10 +5755,10 @@
         <v>410.0324094913096</v>
       </c>
       <c r="K20" t="n">
-        <v>651.1358052532991</v>
+        <v>1029.891316335894</v>
       </c>
       <c r="L20" t="n">
-        <v>1465.082542236115</v>
+        <v>1843.83805331871</v>
       </c>
       <c r="M20" t="n">
         <v>2354.178474912855</v>
@@ -5831,28 +5831,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J21" t="n">
-        <v>101.3349056538557</v>
+        <v>107.4563135531445</v>
       </c>
       <c r="K21" t="n">
-        <v>612.6324242818272</v>
+        <v>618.753832181116</v>
       </c>
       <c r="L21" t="n">
-        <v>1348.335446494842</v>
+        <v>1354.45685439413</v>
       </c>
       <c r="M21" t="n">
-        <v>1378.418816531462</v>
+        <v>1384.540224430751</v>
       </c>
       <c r="N21" t="n">
-        <v>1415.133905047969</v>
+        <v>1421.255312947258</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.162064156692</v>
+        <v>1445.843429009629</v>
       </c>
       <c r="P21" t="n">
-        <v>2124.066303194821</v>
+        <v>2073.170599189064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2124.066303194821</v>
+        <v>2073.170599189064</v>
       </c>
       <c r="R21" t="n">
         <v>2124.066303194821</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1178.921416135572</v>
+        <v>527.6817201071891</v>
       </c>
       <c r="C22" t="n">
-        <v>1007.828043697288</v>
+        <v>356.5883476689056</v>
       </c>
       <c r="D22" t="n">
-        <v>848.3333990201984</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="E22" t="n">
-        <v>687.4225838885178</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="F22" t="n">
-        <v>522.7914579991091</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="G22" t="n">
-        <v>355.8350176480684</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="H22" t="n">
         <v>208.8410516126227</v>
@@ -5940,22 +5940,22 @@
         <v>1735.077751701521</v>
       </c>
       <c r="T22" t="n">
-        <v>1735.077751701521</v>
+        <v>1496.784983951</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.077751701521</v>
+        <v>1214.002870172947</v>
       </c>
       <c r="V22" t="n">
-        <v>1735.077751701521</v>
+        <v>940.1171251124688</v>
       </c>
       <c r="W22" t="n">
-        <v>1456.008087210395</v>
+        <v>940.1171251124688</v>
       </c>
       <c r="X22" t="n">
-        <v>1456.008087210395</v>
+        <v>940.1171251124688</v>
       </c>
       <c r="Y22" t="n">
-        <v>1366.621122529616</v>
+        <v>715.3814265012335</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J23" t="n">
-        <v>112.1786620333677</v>
+        <v>410.0324094913096</v>
       </c>
       <c r="K23" t="n">
-        <v>732.0375688779517</v>
+        <v>651.1358052532991</v>
       </c>
       <c r="L23" t="n">
-        <v>1545.984305860768</v>
+        <v>1465.082542236115</v>
       </c>
       <c r="M23" t="n">
-        <v>2435.080238537507</v>
+        <v>2354.178474912855</v>
       </c>
       <c r="N23" t="n">
-        <v>3302.863452154654</v>
+        <v>3221.961688530002</v>
       </c>
       <c r="O23" t="n">
-        <v>4054.709913442879</v>
+        <v>3973.808149818226</v>
       </c>
       <c r="P23" t="n">
-        <v>4676.226126463028</v>
+        <v>4595.324362838375</v>
       </c>
       <c r="Q23" t="n">
-        <v>5066.745282692785</v>
+        <v>4985.843519068132</v>
       </c>
       <c r="R23" t="n">
         <v>5066.745282692785</v>
@@ -6068,28 +6068,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J24" t="n">
-        <v>101.3349056538557</v>
+        <v>326.6147562510745</v>
       </c>
       <c r="K24" t="n">
-        <v>175.4287446531773</v>
+        <v>837.912274879046</v>
       </c>
       <c r="L24" t="n">
-        <v>194.490216374163</v>
+        <v>856.9737466000316</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.539308006384</v>
+        <v>887.0571166366524</v>
       </c>
       <c r="N24" t="n">
-        <v>2087.57394809432</v>
+        <v>923.7722051531588</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.162064156692</v>
+        <v>1709.491375971425</v>
       </c>
       <c r="P24" t="n">
-        <v>2124.066303194821</v>
+        <v>1721.395615009554</v>
       </c>
       <c r="Q24" t="n">
-        <v>2124.066303194821</v>
+        <v>2073.170599189064</v>
       </c>
       <c r="R24" t="n">
         <v>2124.066303194821</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4136.896351056062</v>
+        <v>415.2853120403421</v>
       </c>
       <c r="C25" t="n">
-        <v>3965.802978617779</v>
+        <v>415.2853120403421</v>
       </c>
       <c r="D25" t="n">
-        <v>3806.308333940689</v>
+        <v>415.2853120403421</v>
       </c>
       <c r="E25" t="n">
-        <v>3645.397518809008</v>
+        <v>415.2853120403421</v>
       </c>
       <c r="F25" t="n">
-        <v>3480.7663929196</v>
+        <v>415.2853120403421</v>
       </c>
       <c r="G25" t="n">
-        <v>3313.809952568559</v>
+        <v>248.3288716893014</v>
       </c>
       <c r="H25" t="n">
-        <v>3251.733427950378</v>
+        <v>101.3349056538557</v>
       </c>
       <c r="I25" t="n">
-        <v>3251.733427950378</v>
+        <v>101.3349056538557</v>
       </c>
       <c r="J25" t="n">
-        <v>3286.184725409796</v>
+        <v>135.7862031132739</v>
       </c>
       <c r="K25" t="n">
-        <v>3474.209163217256</v>
+        <v>323.8106409207343</v>
       </c>
       <c r="L25" t="n">
-        <v>3776.939040362241</v>
+        <v>626.5405180657187</v>
       </c>
       <c r="M25" t="n">
-        <v>4111.364254408328</v>
+        <v>960.9657321118059</v>
       </c>
       <c r="N25" t="n">
-        <v>4436.290363020461</v>
+        <v>1285.891840723939</v>
       </c>
       <c r="O25" t="n">
-        <v>4736.572754849677</v>
+        <v>1586.174232553155</v>
       </c>
       <c r="P25" t="n">
-        <v>4977.092714080025</v>
+        <v>1826.694191783503</v>
       </c>
       <c r="Q25" t="n">
-        <v>5066.745282692785</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="R25" t="n">
-        <v>5066.745282692785</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="S25" t="n">
-        <v>5066.745282692785</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="T25" t="n">
-        <v>5066.745282692785</v>
+        <v>1678.053992645742</v>
       </c>
       <c r="U25" t="n">
-        <v>5066.745282692785</v>
+        <v>1395.271878867689</v>
       </c>
       <c r="V25" t="n">
-        <v>5066.745282692785</v>
+        <v>1121.386133807211</v>
       </c>
       <c r="W25" t="n">
-        <v>4787.675618201659</v>
+        <v>842.3164693160852</v>
       </c>
       <c r="X25" t="n">
-        <v>4549.331756061342</v>
+        <v>603.9726071757686</v>
       </c>
       <c r="Y25" t="n">
-        <v>4324.596057450107</v>
+        <v>415.2853120403421</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2524.652120501968</v>
+        <v>2524.652120501967</v>
       </c>
       <c r="C26" t="n">
-        <v>2114.527529815238</v>
+        <v>2114.527529815237</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.063599908299</v>
+        <v>1710.063599908298</v>
       </c>
       <c r="E26" t="n">
         <v>1295.723384425195</v>
       </c>
       <c r="F26" t="n">
-        <v>874.6929723788828</v>
+        <v>874.6929723788821</v>
       </c>
       <c r="G26" t="n">
-        <v>466.6200009854059</v>
+        <v>466.6200009854056</v>
       </c>
       <c r="H26" t="n">
         <v>162.4227249422115</v>
@@ -6241,10 +6241,10 @@
         <v>3600.717199612596</v>
       </c>
       <c r="O26" t="n">
-        <v>4352.563660900822</v>
+        <v>3973.808149818226</v>
       </c>
       <c r="P26" t="n">
-        <v>4974.07987392097</v>
+        <v>4595.324362838375</v>
       </c>
       <c r="Q26" t="n">
         <v>4985.843519068132</v>
@@ -6271,7 +6271,7 @@
         <v>3335.809973218366</v>
       </c>
       <c r="Y26" t="n">
-        <v>2934.873300166456</v>
+        <v>2934.873300166457</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J27" t="n">
-        <v>101.3349056538557</v>
+        <v>326.6147562510745</v>
       </c>
       <c r="K27" t="n">
-        <v>101.5586430597593</v>
+        <v>837.912274879046</v>
       </c>
       <c r="L27" t="n">
-        <v>120.6201147807449</v>
+        <v>1573.61529709206</v>
       </c>
       <c r="M27" t="n">
-        <v>150.7034848173656</v>
+        <v>1603.698667128681</v>
       </c>
       <c r="N27" t="n">
-        <v>1113.738124905302</v>
+        <v>1642.967693091105</v>
       </c>
       <c r="O27" t="n">
-        <v>1899.457295723568</v>
+        <v>1667.555809153476</v>
       </c>
       <c r="P27" t="n">
-        <v>2124.066303194821</v>
+        <v>1679.460048191605</v>
       </c>
       <c r="Q27" t="n">
-        <v>2124.066303194821</v>
+        <v>2073.170599189064</v>
       </c>
       <c r="R27" t="n">
         <v>2124.066303194821</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.9164379297508</v>
+        <v>801.5163707778714</v>
       </c>
       <c r="C28" t="n">
-        <v>579.9164379297508</v>
+        <v>630.4229983395879</v>
       </c>
       <c r="D28" t="n">
-        <v>579.9164379297508</v>
+        <v>630.4229983395879</v>
       </c>
       <c r="E28" t="n">
-        <v>579.9164379297508</v>
+        <v>469.5121832079074</v>
       </c>
       <c r="F28" t="n">
-        <v>415.2853120403421</v>
+        <v>304.8810573184987</v>
       </c>
       <c r="G28" t="n">
-        <v>248.3288716893014</v>
+        <v>137.924616967458</v>
       </c>
       <c r="H28" t="n">
-        <v>101.3349056538557</v>
+        <v>137.924616967458</v>
       </c>
       <c r="I28" t="n">
         <v>101.3349056538557</v>
@@ -6408,28 +6408,28 @@
         <v>1916.346760396263</v>
       </c>
       <c r="R28" t="n">
-        <v>1844.291135508162</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="S28" t="n">
-        <v>1844.291135508162</v>
+        <v>1735.077751701521</v>
       </c>
       <c r="T28" t="n">
-        <v>1844.291135508162</v>
+        <v>1735.077751701521</v>
       </c>
       <c r="U28" t="n">
-        <v>1561.509021730109</v>
+        <v>1452.295637923468</v>
       </c>
       <c r="V28" t="n">
-        <v>1287.623276669631</v>
+        <v>1452.295637923468</v>
       </c>
       <c r="W28" t="n">
-        <v>1008.553612178502</v>
+        <v>1452.295637923468</v>
       </c>
       <c r="X28" t="n">
-        <v>770.2097500381851</v>
+        <v>1213.951775783151</v>
       </c>
       <c r="Y28" t="n">
-        <v>767.6161443237952</v>
+        <v>989.2160771719158</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2524.652120501967</v>
+        <v>2524.652120501968</v>
       </c>
       <c r="C29" t="n">
-        <v>2114.527529815237</v>
+        <v>2114.527529815238</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.063599908298</v>
+        <v>1710.063599908299</v>
       </c>
       <c r="E29" t="n">
         <v>1295.723384425195</v>
       </c>
       <c r="F29" t="n">
-        <v>874.6929723788821</v>
+        <v>874.6929723788828</v>
       </c>
       <c r="G29" t="n">
-        <v>466.6200009854056</v>
+        <v>466.6200009854059</v>
       </c>
       <c r="H29" t="n">
         <v>162.4227249422115</v>
@@ -6478,7 +6478,7 @@
         <v>3600.717199612596</v>
       </c>
       <c r="O29" t="n">
-        <v>3973.808149818226</v>
+        <v>4352.563660900822</v>
       </c>
       <c r="P29" t="n">
         <v>4595.324362838375</v>
@@ -6508,7 +6508,7 @@
         <v>3335.809973218366</v>
       </c>
       <c r="Y29" t="n">
-        <v>2934.873300166457</v>
+        <v>2934.873300166456</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J30" t="n">
-        <v>101.3349056538557</v>
+        <v>326.6147562510745</v>
       </c>
       <c r="K30" t="n">
-        <v>385.1067457325787</v>
+        <v>837.912274879046</v>
       </c>
       <c r="L30" t="n">
-        <v>1120.809767945593</v>
+        <v>856.9737466000316</v>
       </c>
       <c r="M30" t="n">
-        <v>2050.858859577814</v>
+        <v>887.0571166366524</v>
       </c>
       <c r="N30" t="n">
-        <v>2087.57394809432</v>
+        <v>923.7722051531588</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.162064156692</v>
+        <v>1103.028582017927</v>
       </c>
       <c r="P30" t="n">
-        <v>2124.066303194821</v>
+        <v>1730.355752197362</v>
       </c>
       <c r="Q30" t="n">
         <v>2124.066303194821</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>592.8337379009097</v>
+        <v>712.6631780888587</v>
       </c>
       <c r="C31" t="n">
-        <v>421.7403654626262</v>
+        <v>541.5698056505752</v>
       </c>
       <c r="D31" t="n">
-        <v>262.2457207855362</v>
+        <v>534.3829926337119</v>
       </c>
       <c r="E31" t="n">
-        <v>101.3349056538557</v>
+        <v>373.4721775020314</v>
       </c>
       <c r="F31" t="n">
-        <v>101.3349056538557</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="G31" t="n">
-        <v>101.3349056538557</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="H31" t="n">
-        <v>101.3349056538557</v>
+        <v>208.8410516126227</v>
       </c>
       <c r="I31" t="n">
         <v>101.3349056538557</v>
@@ -6648,25 +6648,25 @@
         <v>1916.346760396263</v>
       </c>
       <c r="S31" t="n">
-        <v>1796.56841459811</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="T31" t="n">
-        <v>1796.56841459811</v>
+        <v>1678.053992645742</v>
       </c>
       <c r="U31" t="n">
-        <v>1796.56841459811</v>
+        <v>1678.053992645742</v>
       </c>
       <c r="V31" t="n">
-        <v>1522.682669537632</v>
+        <v>1404.168247585264</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.613005046506</v>
+        <v>1125.098583094138</v>
       </c>
       <c r="X31" t="n">
-        <v>1005.269142906189</v>
+        <v>1125.098583094138</v>
       </c>
       <c r="Y31" t="n">
-        <v>780.5334442949541</v>
+        <v>900.362884482903</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J32" t="n">
-        <v>112.1786620333677</v>
+        <v>410.0324094913096</v>
       </c>
       <c r="K32" t="n">
-        <v>732.0375688779517</v>
+        <v>1029.891316335894</v>
       </c>
       <c r="L32" t="n">
-        <v>1545.984305860768</v>
+        <v>1843.83805331871</v>
       </c>
       <c r="M32" t="n">
-        <v>2435.080238537507</v>
+        <v>2732.933985995449</v>
       </c>
       <c r="N32" t="n">
-        <v>3302.863452154654</v>
+        <v>3600.717199612596</v>
       </c>
       <c r="O32" t="n">
-        <v>4054.709913442879</v>
+        <v>4352.563660900822</v>
       </c>
       <c r="P32" t="n">
-        <v>4676.226126463028</v>
+        <v>4595.324362838375</v>
       </c>
       <c r="Q32" t="n">
-        <v>5066.745282692785</v>
+        <v>4985.843519068132</v>
       </c>
       <c r="R32" t="n">
         <v>5066.745282692785</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1178.921416135572</v>
+        <v>379.2369085645333</v>
       </c>
       <c r="C34" t="n">
-        <v>1007.828043697288</v>
+        <v>379.2369085645333</v>
       </c>
       <c r="D34" t="n">
-        <v>848.3333990201984</v>
+        <v>379.2369085645333</v>
       </c>
       <c r="E34" t="n">
-        <v>687.4225838885178</v>
+        <v>379.2369085645333</v>
       </c>
       <c r="F34" t="n">
-        <v>522.7914579991091</v>
+        <v>379.2369085645333</v>
       </c>
       <c r="G34" t="n">
-        <v>355.8350176480684</v>
+        <v>248.3288716893014</v>
       </c>
       <c r="H34" t="n">
-        <v>208.8410516126227</v>
+        <v>101.3349056538557</v>
       </c>
       <c r="I34" t="n">
         <v>101.3349056538557</v>
@@ -6882,28 +6882,28 @@
         <v>1916.346760396263</v>
       </c>
       <c r="R34" t="n">
-        <v>1844.291135508162</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="S34" t="n">
-        <v>1844.291135508162</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="T34" t="n">
-        <v>1844.291135508162</v>
+        <v>1678.053992645742</v>
       </c>
       <c r="U34" t="n">
-        <v>1844.291135508162</v>
+        <v>1395.271878867689</v>
       </c>
       <c r="V34" t="n">
-        <v>1829.700683281168</v>
+        <v>1121.386133807211</v>
       </c>
       <c r="W34" t="n">
-        <v>1829.700683281168</v>
+        <v>842.3164693160852</v>
       </c>
       <c r="X34" t="n">
-        <v>1591.356821140851</v>
+        <v>603.9726071757686</v>
       </c>
       <c r="Y34" t="n">
-        <v>1366.621122529616</v>
+        <v>379.2369085645333</v>
       </c>
     </row>
     <row r="35">
@@ -7016,28 +7016,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J36" t="n">
-        <v>101.3349056538557</v>
+        <v>326.6147562510745</v>
       </c>
       <c r="K36" t="n">
-        <v>101.5586430597593</v>
+        <v>837.912274879046</v>
       </c>
       <c r="L36" t="n">
-        <v>120.6201147807449</v>
+        <v>960.7463033966715</v>
       </c>
       <c r="M36" t="n">
-        <v>1050.669206412966</v>
+        <v>990.8296734332922</v>
       </c>
       <c r="N36" t="n">
-        <v>2013.703846500902</v>
+        <v>1027.544761949799</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.162064156692</v>
+        <v>1052.13287801217</v>
       </c>
       <c r="P36" t="n">
-        <v>2124.066303194821</v>
+        <v>1679.460048191605</v>
       </c>
       <c r="Q36" t="n">
-        <v>2124.066303194821</v>
+        <v>2073.170599189064</v>
       </c>
       <c r="R36" t="n">
         <v>2124.066303194821</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4329.319938432094</v>
+        <v>1071.415270176805</v>
       </c>
       <c r="C37" t="n">
-        <v>4158.22656599381</v>
+        <v>900.3218977385213</v>
       </c>
       <c r="D37" t="n">
-        <v>3998.73192131672</v>
+        <v>740.8272530614313</v>
       </c>
       <c r="E37" t="n">
-        <v>3837.82110618504</v>
+        <v>579.9164379297508</v>
       </c>
       <c r="F37" t="n">
-        <v>3673.189980295631</v>
+        <v>415.2853120403421</v>
       </c>
       <c r="G37" t="n">
-        <v>3506.23353994459</v>
+        <v>248.3288716893014</v>
       </c>
       <c r="H37" t="n">
-        <v>3359.239573909144</v>
+        <v>101.3349056538557</v>
       </c>
       <c r="I37" t="n">
-        <v>3251.733427950378</v>
+        <v>101.3349056538557</v>
       </c>
       <c r="J37" t="n">
-        <v>3286.184725409796</v>
+        <v>135.7862031132739</v>
       </c>
       <c r="K37" t="n">
-        <v>3474.209163217256</v>
+        <v>323.8106409207343</v>
       </c>
       <c r="L37" t="n">
-        <v>3776.939040362241</v>
+        <v>626.5405180657187</v>
       </c>
       <c r="M37" t="n">
-        <v>4111.364254408328</v>
+        <v>960.9657321118059</v>
       </c>
       <c r="N37" t="n">
-        <v>4436.290363020461</v>
+        <v>1285.891840723939</v>
       </c>
       <c r="O37" t="n">
-        <v>4736.572754849677</v>
+        <v>1586.174232553155</v>
       </c>
       <c r="P37" t="n">
-        <v>4977.092714080025</v>
+        <v>1826.694191783503</v>
       </c>
       <c r="Q37" t="n">
-        <v>5066.745282692785</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="R37" t="n">
-        <v>4994.689657804684</v>
+        <v>1916.346760396263</v>
       </c>
       <c r="S37" t="n">
-        <v>4813.420649109942</v>
+        <v>1735.077751701521</v>
       </c>
       <c r="T37" t="n">
-        <v>4575.127881359421</v>
+        <v>1496.784983951</v>
       </c>
       <c r="U37" t="n">
-        <v>4575.127881359421</v>
+        <v>1214.002870172947</v>
       </c>
       <c r="V37" t="n">
-        <v>4517.019644826139</v>
+        <v>1214.002870172947</v>
       </c>
       <c r="W37" t="n">
-        <v>4517.019644826139</v>
+        <v>1214.002870172947</v>
       </c>
       <c r="X37" t="n">
-        <v>4517.019644826139</v>
+        <v>1214.002870172947</v>
       </c>
       <c r="Y37" t="n">
-        <v>4517.019644826139</v>
+        <v>1214.002870172947</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>101.3349056538557</v>
       </c>
       <c r="J38" t="n">
-        <v>101.3349056538557</v>
+        <v>112.1786620333686</v>
       </c>
       <c r="K38" t="n">
-        <v>721.1938124984397</v>
+        <v>732.0375688779526</v>
       </c>
       <c r="L38" t="n">
-        <v>1535.140549481256</v>
+        <v>1545.984305860769</v>
       </c>
       <c r="M38" t="n">
-        <v>2424.236482157995</v>
+        <v>2435.080238537508</v>
       </c>
       <c r="N38" t="n">
-        <v>3292.019695775142</v>
+        <v>3302.863452154655</v>
       </c>
       <c r="O38" t="n">
-        <v>4043.866157063367</v>
+        <v>4054.70991344288</v>
       </c>
       <c r="P38" t="n">
-        <v>4595.324362838376</v>
+        <v>4676.226126463029</v>
       </c>
       <c r="Q38" t="n">
-        <v>4985.843519068133</v>
+        <v>5066.745282692786</v>
       </c>
       <c r="R38" t="n">
         <v>5066.745282692786</v>
@@ -7259,16 +7259,16 @@
         <v>101.5586430597593</v>
       </c>
       <c r="L39" t="n">
-        <v>120.6201147807449</v>
+        <v>837.2616652727738</v>
       </c>
       <c r="M39" t="n">
-        <v>1050.669206412966</v>
+        <v>867.3450353093946</v>
       </c>
       <c r="N39" t="n">
-        <v>2013.703846500902</v>
+        <v>904.060123825901</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.162064156692</v>
+        <v>1689.779294644167</v>
       </c>
       <c r="P39" t="n">
         <v>2124.066303194821</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1178.921416135572</v>
+        <v>940.1171251124688</v>
       </c>
       <c r="C40" t="n">
-        <v>1007.828043697288</v>
+        <v>940.1171251124688</v>
       </c>
       <c r="D40" t="n">
         <v>848.3333990201984</v>
@@ -7359,25 +7359,25 @@
         <v>1916.346760396263</v>
       </c>
       <c r="S40" t="n">
-        <v>1916.346760396263</v>
+        <v>1735.077751701521</v>
       </c>
       <c r="T40" t="n">
-        <v>1916.346760396263</v>
+        <v>1496.784983951</v>
       </c>
       <c r="U40" t="n">
-        <v>1829.700683281168</v>
+        <v>1214.002870172947</v>
       </c>
       <c r="V40" t="n">
-        <v>1829.700683281168</v>
+        <v>940.1171251124688</v>
       </c>
       <c r="W40" t="n">
-        <v>1829.700683281168</v>
+        <v>940.1171251124688</v>
       </c>
       <c r="X40" t="n">
-        <v>1591.356821140851</v>
+        <v>940.1171251124688</v>
       </c>
       <c r="Y40" t="n">
-        <v>1366.621122529616</v>
+        <v>940.1171251124688</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1691.724233752687</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="C41" t="n">
-        <v>1281.599643065957</v>
+        <v>867.259427582854</v>
       </c>
       <c r="D41" t="n">
-        <v>877.1357131590178</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E41" t="n">
         <v>462.7954976759145</v>
@@ -7414,25 +7414,25 @@
         <v>350.462589467056</v>
       </c>
       <c r="K41" t="n">
-        <v>350.462589467056</v>
+        <v>867.3055241333815</v>
       </c>
       <c r="L41" t="n">
-        <v>867.3055241333815</v>
+        <v>1040.993651355788</v>
       </c>
       <c r="M41" t="n">
-        <v>887.7255436058917</v>
+        <v>1061.413670828298</v>
       </c>
       <c r="N41" t="n">
-        <v>1404.568478272217</v>
+        <v>1084.032699957774</v>
       </c>
       <c r="O41" t="n">
-        <v>1921.411412938543</v>
+        <v>1099.990426959369</v>
       </c>
       <c r="P41" t="n">
-        <v>2088.254281480103</v>
+        <v>1616.833361625694</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480103</v>
+        <v>2007.352517855451</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480103</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480103</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480103</v>
+        <v>1868.916428831144</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480103</v>
+        <v>1611.90836210775</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480103</v>
+        <v>1611.90836210775</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480103</v>
+        <v>1611.90836210775</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480103</v>
+        <v>1611.90836210775</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480103</v>
+        <v>1611.90836210775</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>778.3424548547923</v>
       </c>
       <c r="L42" t="n">
-        <v>797.403926575778</v>
+        <v>1295.185389521118</v>
       </c>
       <c r="M42" t="n">
-        <v>827.4872966123987</v>
+        <v>1325.268759557739</v>
       </c>
       <c r="N42" t="n">
-        <v>864.2023851289051</v>
+        <v>1535.749309466112</v>
       </c>
       <c r="O42" t="n">
-        <v>1103.047293501026</v>
+        <v>2052.592244132438</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.890228167351</v>
+        <v>2064.496483170567</v>
       </c>
       <c r="Q42" t="n">
-        <v>2013.60077916481</v>
+        <v>2064.496483170567</v>
       </c>
       <c r="R42" t="n">
         <v>2064.496483170567</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>206.3962115190108</v>
+        <v>458.2161858407817</v>
       </c>
       <c r="C43" t="n">
-        <v>206.3962115190108</v>
+        <v>458.2161858407817</v>
       </c>
       <c r="D43" t="n">
-        <v>206.3962115190108</v>
+        <v>458.2161858407817</v>
       </c>
       <c r="E43" t="n">
-        <v>206.3962115190108</v>
+        <v>297.3053707091012</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960206</v>
+        <v>132.6742448196924</v>
       </c>
       <c r="G43" t="n">
         <v>41.76508562960206</v>
@@ -7596,25 +7596,25 @@
         <v>1856.776940372009</v>
       </c>
       <c r="S43" t="n">
-        <v>1856.776940372009</v>
+        <v>1675.507931677267</v>
       </c>
       <c r="T43" t="n">
-        <v>1692.913001994264</v>
+        <v>1437.215163926746</v>
       </c>
       <c r="U43" t="n">
-        <v>1410.130888216211</v>
+        <v>1437.215163926746</v>
       </c>
       <c r="V43" t="n">
-        <v>1136.245143155733</v>
+        <v>1163.329418866268</v>
       </c>
       <c r="W43" t="n">
-        <v>857.175478664607</v>
+        <v>884.2597543751426</v>
       </c>
       <c r="X43" t="n">
-        <v>618.8316165242904</v>
+        <v>645.9158922348261</v>
       </c>
       <c r="Y43" t="n">
-        <v>394.0959179130552</v>
+        <v>645.9158922348261</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1267.908511128884</v>
       </c>
       <c r="D44" t="n">
-        <v>1267.908511128884</v>
+        <v>863.4445812219442</v>
       </c>
       <c r="E44" t="n">
-        <v>853.5682956457804</v>
+        <v>449.1043657388409</v>
       </c>
       <c r="F44" t="n">
-        <v>432.5378835994679</v>
+        <v>41.76508562960206</v>
       </c>
       <c r="G44" t="n">
         <v>41.76508562960206</v>
@@ -7651,25 +7651,25 @@
         <v>41.76508562960206</v>
       </c>
       <c r="K44" t="n">
-        <v>449.9989207681124</v>
+        <v>41.76508562960206</v>
       </c>
       <c r="L44" t="n">
-        <v>456.8237138564743</v>
+        <v>558.6080202959275</v>
       </c>
       <c r="M44" t="n">
-        <v>973.6666485227998</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N44" t="n">
-        <v>1490.509583189125</v>
+        <v>1571.411346813778</v>
       </c>
       <c r="O44" t="n">
-        <v>2007.352517855451</v>
+        <v>2088.254281480103</v>
       </c>
       <c r="P44" t="n">
-        <v>2007.352517855451</v>
+        <v>2088.254281480103</v>
       </c>
       <c r="Q44" t="n">
-        <v>2007.352517855451</v>
+        <v>2088.254281480103</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480103</v>
@@ -7730,22 +7730,22 @@
         <v>267.0449362268208</v>
       </c>
       <c r="K45" t="n">
-        <v>267.2686736327244</v>
+        <v>778.3424548547923</v>
       </c>
       <c r="L45" t="n">
-        <v>784.11160829905</v>
+        <v>1295.185389521118</v>
       </c>
       <c r="M45" t="n">
-        <v>814.1949783356707</v>
+        <v>1325.268759557739</v>
       </c>
       <c r="N45" t="n">
-        <v>1331.037913001996</v>
+        <v>1361.983848074245</v>
       </c>
       <c r="O45" t="n">
-        <v>1496.757844498485</v>
+        <v>1386.571964136617</v>
       </c>
       <c r="P45" t="n">
-        <v>2013.60077916481</v>
+        <v>1619.890228167351</v>
       </c>
       <c r="Q45" t="n">
         <v>2013.60077916481</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1119.351596111318</v>
+        <v>627.8527638642641</v>
       </c>
       <c r="C46" t="n">
-        <v>948.2582236730348</v>
+        <v>627.8527638642641</v>
       </c>
       <c r="D46" t="n">
-        <v>788.7635789959447</v>
+        <v>627.8527638642641</v>
       </c>
       <c r="E46" t="n">
         <v>627.8527638642641</v>
@@ -7833,25 +7833,25 @@
         <v>1856.776940372009</v>
       </c>
       <c r="S46" t="n">
-        <v>1856.776940372009</v>
+        <v>1675.507931677267</v>
       </c>
       <c r="T46" t="n">
-        <v>1856.776940372009</v>
+        <v>1437.215163926746</v>
       </c>
       <c r="U46" t="n">
-        <v>1856.776940372009</v>
+        <v>1437.215163926746</v>
       </c>
       <c r="V46" t="n">
-        <v>1810.856665607723</v>
+        <v>1163.329418866268</v>
       </c>
       <c r="W46" t="n">
-        <v>1531.787001116598</v>
+        <v>884.2597543751426</v>
       </c>
       <c r="X46" t="n">
-        <v>1531.787001116598</v>
+        <v>645.9158922348261</v>
       </c>
       <c r="Y46" t="n">
-        <v>1307.051302505363</v>
+        <v>627.8527638642641</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8063,13 +8063,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599696</v>
       </c>
       <c r="M3" t="n">
-        <v>72.0488776838054</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8233,13 +8233,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
@@ -8309,7 +8309,7 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>72.23607294538775</v>
+        <v>502.7883324430334</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>228.5110173896169</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276483</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>524.3053858067748</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
@@ -8552,7 +8552,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18.26093237401542</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>6.611737415091312</v>
+        <v>191.2794759359386</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>501.4372880745607</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>499.2160661988378</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>505.9446542067986</v>
+        <v>505.9446542067985</v>
       </c>
       <c r="P11" t="n">
-        <v>412.7143330157454</v>
+        <v>522.4204941549528</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.97506759666247</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,16 +8768,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>18.57429634082272</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>502.8095585306461</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>420.9080088733409</v>
       </c>
       <c r="N12" t="n">
         <v>484.9776223735544</v>
@@ -8786,13 +8786,13 @@
         <v>497.227089498943</v>
       </c>
       <c r="P12" t="n">
-        <v>155.3693863215757</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>12.38344041041897</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>37.44849744568145</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>6.611737415091312</v>
+        <v>528.6753077851168</v>
       </c>
       <c r="L14" t="n">
-        <v>515.1698399777408</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>257.1615059061194</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>168.5488223576203</v>
       </c>
       <c r="P14" t="n">
         <v>522.4204941549528</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>46.55949843584714</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>18.57429634082272</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>247.6795226080792</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>491.6763279087925</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>484.9776223735544</v>
       </c>
       <c r="O15" t="n">
-        <v>497.227089498943</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>445.4678236131018</v>
+        <v>510.0390864931273</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.38344041041897</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>37.44849744568145</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>29.21422164624975</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>432.6933664766261</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>46.55949843584714</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>18.57429634082272</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>69.74898077726348</v>
+        <v>104.8207644410503</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>37.44849744568145</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1505210130605</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>494.8690930521559</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>18.57429634082272</v>
+        <v>24.75753664313466</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>679.2323667134864</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>12.38344041041897</v>
       </c>
       <c r="R21" t="n">
-        <v>37.44849744568145</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.21422164624975</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>250.1505210130605</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
@@ -9661,7 +9661,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>46.55949843584714</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>18.57429634082272</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>74.61626423577582</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.38344041041897</v>
+        <v>367.7117072584091</v>
       </c>
       <c r="R24" t="n">
-        <v>37.44849744568145</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O26" t="n">
-        <v>743.321953824879</v>
+        <v>360.7406294990257</v>
       </c>
       <c r="P26" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>31.85753744228035</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>18.57429634082272</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>2.579734793855366</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>214.8533014475994</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.38344041041897</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>37.44849744568145</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O29" t="n">
-        <v>360.7406294990257</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P29" t="n">
-        <v>628.1510783507341</v>
+        <v>245.5697540248806</v>
       </c>
       <c r="Q29" t="n">
         <v>414.4388617681339</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>18.57429634082272</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>286.4122249220399</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>156.2305664670671</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.38344041041897</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>37.44849744568145</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.21422164624975</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10366,13 +10366,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507341</v>
+        <v>245.5697540248806</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>46.55949843584714</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>18.57429634082272</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>104.8207644410504</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>74.61626423577565</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.38344041041897</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>37.44849744568145</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>18.26093237401542</v>
+        <v>29.21422164625065</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10840,13 +10840,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>557.3854144667547</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>46.55949843584714</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>74.61626423577565</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>426.6492621338634</v>
       </c>
       <c r="Q39" t="n">
         <v>12.38344041041897</v>
@@ -11062,28 +11062,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>6.611737415091312</v>
+        <v>528.6753077851171</v>
       </c>
       <c r="L41" t="n">
-        <v>515.169839977741</v>
+        <v>168.5488223576205</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>499.2160661988381</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>505.9446542067988</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>168.8850738269073</v>
+        <v>522.4204941549531</v>
       </c>
       <c r="Q41" t="n">
-        <v>19.97506759666247</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>46.55949843584714</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>502.8095585306464</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>175.5206680725931</v>
       </c>
       <c r="O42" t="n">
-        <v>216.4210023330796</v>
+        <v>497.2270894989432</v>
       </c>
       <c r="P42" t="n">
-        <v>510.0390864931276</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>12.38344041041897</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>37.44849744568145</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>18.26093237401542</v>
       </c>
       <c r="K44" t="n">
-        <v>418.9691466459099</v>
+        <v>6.611737415091312</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>515.169839977741</v>
       </c>
       <c r="M44" t="n">
-        <v>501.437288074561</v>
+        <v>501.4372880745609</v>
       </c>
       <c r="N44" t="n">
-        <v>499.2160661988381</v>
+        <v>478.1225886081299</v>
       </c>
       <c r="O44" t="n">
         <v>505.9446542067988</v>
@@ -11320,7 +11320,7 @@
         <v>19.97506759666247</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>46.55949843584714</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>502.8095585306464</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>484.9776223735547</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5573893273906</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>510.0390864931276</v>
+        <v>223.6505302955609</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.38344041041897</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.5075555758639</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>403.9922416795421</v>
       </c>
       <c r="H11" t="n">
-        <v>301.1553032827624</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>60.47694109547223</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>18.63917294938926</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.1444741224694</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.4379860561607</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>138.653218995958</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.2868759475303</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>145.5240263750913</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>71.33506863921954</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>179.4563186077945</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>50.33105495551902</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>403.9922416795421</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.1446553752395</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1444741224694</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.4379860561607</v>
@@ -23557,13 +23557,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>360.0242673938929</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>336.9649849018075</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.385210784325</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>47.72339492702137</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.2868759475303</v>
       </c>
       <c r="H16" t="n">
-        <v>145.5240263750913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>106.4310844991793</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>71.33506863921954</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>179.4563186077945</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>67.43418599899516</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.2868759475303</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.5240263750913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>235.9098400730157</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>222.9947496649793</v>
+        <v>279.9542926402726</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>11.62987513459896</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.2868759475303</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.5240263750913</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>235.9098400730157</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9542926402726</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.9952465911518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>84.06826700309175</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>106.4310844991793</v>
@@ -24417,13 +24417,13 @@
         <v>179.4563186077945</v>
       </c>
       <c r="T25" t="n">
-        <v>235.9098400730157</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9542926402726</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>35.68791944105067</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.5240263750913</v>
       </c>
       <c r="I28" t="n">
-        <v>106.4310844991793</v>
+        <v>70.20727029871304</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>71.33506863921954</v>
       </c>
       <c r="S28" t="n">
-        <v>179.4563186077945</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>235.9098400730157</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.9206719678769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>150.7847533436244</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.2868759475303</v>
@@ -24858,7 +24858,7 @@
         <v>145.5240263750913</v>
       </c>
       <c r="I31" t="n">
-        <v>106.4310844991793</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>71.33506863921954</v>
       </c>
       <c r="S31" t="n">
-        <v>60.87575626762292</v>
+        <v>179.4563186077945</v>
       </c>
       <c r="T31" t="n">
-        <v>235.9098400730157</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9542926402726</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>35.6879194410507</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>106.4310844991793</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>71.33506863921954</v>
       </c>
       <c r="S34" t="n">
         <v>179.4563186077945</v>
       </c>
       <c r="T34" t="n">
-        <v>235.9098400730157</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9542926402726</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>256.7023399051488</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>44.66098533392338</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>106.4310844991793</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>71.33506863921954</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9542926402726</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>213.6197334419238</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>67.03380939897139</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>71.33506863921954</v>
       </c>
       <c r="S40" t="n">
-        <v>179.4563186077945</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>235.9098400730157</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>194.1746762963288</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.55422061770287</v>
+        <v>74.93986746806064</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>119.1446553752395</v>
       </c>
       <c r="T41" t="n">
-        <v>217.1444741224694</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4379860561607</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25794,13 +25794,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.2868759475303</v>
+        <v>75.28680834934082</v>
       </c>
       <c r="H43" t="n">
         <v>145.5240263750913</v>
@@ -25836,13 +25836,13 @@
         <v>71.33506863921954</v>
       </c>
       <c r="S43" t="n">
-        <v>179.4563186077945</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>73.68454107904779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9542926402726</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>13.55422061770292</v>
       </c>
       <c r="G44" t="n">
-        <v>17.1271716893749</v>
+        <v>403.9922416795421</v>
       </c>
       <c r="H44" t="n">
         <v>301.1553032827624</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>71.33506863921954</v>
       </c>
       <c r="S46" t="n">
-        <v>179.4563186077945</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>235.9098400730157</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9542926402726</v>
       </c>
       <c r="V46" t="n">
-        <v>225.6858155932304</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>204.6058445382666</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>503209.5605153092</v>
+        <v>503209.5605153091</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>503209.5605153093</v>
+        <v>503209.5605153092</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>808806.9098950225</v>
+        <v>808806.9098950226</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808806.9098950226</v>
+        <v>808806.9098950227</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>808806.9098950227</v>
+        <v>808806.9098950225</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808806.9098950227</v>
+        <v>808806.9098950226</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>503209.5605153095</v>
+        <v>503209.5605153093</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778966</v>
+        <v>390917.7432778968</v>
       </c>
       <c r="C2" t="n">
         <v>390917.7432778967</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778964</v>
+        <v>390917.7432778966</v>
       </c>
       <c r="E2" t="n">
-        <v>235216.5990898297</v>
+        <v>235216.5990898298</v>
       </c>
       <c r="F2" t="n">
         <v>235216.5990898297</v>
       </c>
       <c r="G2" t="n">
-        <v>373230.1979472535</v>
+        <v>373230.1979472538</v>
       </c>
       <c r="H2" t="n">
         <v>373230.1979472535</v>
       </c>
       <c r="I2" t="n">
+        <v>373230.1979472538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>373230.1979472537</v>
+      </c>
+      <c r="K2" t="n">
         <v>373230.1979472535</v>
-      </c>
-      <c r="J2" t="n">
-        <v>373230.1979472535</v>
-      </c>
-      <c r="K2" t="n">
-        <v>373230.1979472537</v>
       </c>
       <c r="L2" t="n">
         <v>373230.1979472536</v>
@@ -26349,13 +26349,13 @@
         <v>373230.1979472538</v>
       </c>
       <c r="N2" t="n">
-        <v>373230.1979472537</v>
+        <v>373230.1979472538</v>
       </c>
       <c r="O2" t="n">
+        <v>235216.5990898298</v>
+      </c>
+      <c r="P2" t="n">
         <v>235216.5990898297</v>
-      </c>
-      <c r="P2" t="n">
-        <v>235216.5990898298</v>
       </c>
     </row>
     <row r="3">
@@ -26432,34 +26432,34 @@
         <v>52820.51019277119</v>
       </c>
       <c r="G4" t="n">
+        <v>94243.83468063858</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94243.83468063858</v>
+      </c>
+      <c r="I4" t="n">
         <v>94243.83468063857</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>94243.83468063858</v>
+      </c>
+      <c r="K4" t="n">
         <v>94243.83468063857</v>
       </c>
-      <c r="I4" t="n">
-        <v>94243.83468063858</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94243.8346806386</v>
-      </c>
-      <c r="K4" t="n">
-        <v>94243.83468063858</v>
-      </c>
       <c r="L4" t="n">
-        <v>94243.83468063858</v>
+        <v>94243.83468063857</v>
       </c>
       <c r="M4" t="n">
         <v>94243.83468063858</v>
       </c>
       <c r="N4" t="n">
-        <v>94243.83468063858</v>
+        <v>94243.8346806386</v>
       </c>
       <c r="O4" t="n">
         <v>52820.5101927712</v>
       </c>
       <c r="P4" t="n">
-        <v>52820.5101927712</v>
+        <v>52820.51019277119</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72123.24048520508</v>
+        <v>-72123.24048520491</v>
       </c>
       <c r="C6" t="n">
-        <v>102832.2694079091</v>
+        <v>102832.269407909</v>
       </c>
       <c r="D6" t="n">
-        <v>102832.2694079088</v>
+        <v>102832.269407909</v>
       </c>
       <c r="E6" t="n">
-        <v>17484.23248914779</v>
+        <v>16835.4777216976</v>
       </c>
       <c r="F6" t="n">
-        <v>147136.562770575</v>
+        <v>146487.8080031247</v>
       </c>
       <c r="G6" t="n">
-        <v>-5636.152595145919</v>
+        <v>-5709.850700690047</v>
       </c>
       <c r="H6" t="n">
-        <v>198453.7739216986</v>
+        <v>198380.0758161543</v>
       </c>
       <c r="I6" t="n">
-        <v>198453.7739216986</v>
+        <v>198380.0758161545</v>
       </c>
       <c r="J6" t="n">
-        <v>61858.97311580356</v>
+        <v>61785.27501025944</v>
       </c>
       <c r="K6" t="n">
-        <v>198453.7739216988</v>
+        <v>198380.0758161542</v>
       </c>
       <c r="L6" t="n">
-        <v>198453.7739216987</v>
+        <v>198380.0758161544</v>
       </c>
       <c r="M6" t="n">
-        <v>198453.7739216989</v>
+        <v>198380.0758161546</v>
       </c>
       <c r="N6" t="n">
-        <v>198453.7739216988</v>
+        <v>198380.0758161545</v>
       </c>
       <c r="O6" t="n">
-        <v>147136.562770575</v>
+        <v>146487.8080031248</v>
       </c>
       <c r="P6" t="n">
-        <v>147136.562770575</v>
+        <v>146487.8080031247</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>348.6675672591697</v>
+        <v>8.119843191193524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27441,7 +27441,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.02349228985796</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>88.94617755196415</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>183.950910510622</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>380.4949914321515</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>185.115127167067</v>
+        <v>248.9256229449252</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34.15581231526721</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>103.6834669398975</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27915,10 +27915,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28028,7 +28028,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>176.7447810967516</v>
+        <v>170.535215949722</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>500.9700927793178</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>14.48459394538798</v>
-      </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>14.48459394538775</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>445.0368534430329</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
@@ -35272,7 +35272,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>311.8156604418726</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>184.6677385208473</v>
       </c>
       <c r="L11" t="n">
         <v>6.893730392284766</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>20.62628229546486</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>22.84750417118771</v>
       </c>
       <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
-        <v>412.3574092308181</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>394.4637941714714</v>
       </c>
       <c r="R11" t="n">
         <v>81.71895315621458</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>227.5554046436553</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2259973797005728</v>
+        <v>516.462140028254</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>19.25401183937943</v>
       </c>
       <c r="M12" t="n">
-        <v>30.38724246123308</v>
+        <v>451.2952513345739</v>
       </c>
       <c r="N12" t="n">
         <v>522.0635703700256</v>
@@ -35506,13 +35506,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>167.3938701984739</v>
+        <v>12.02448387689824</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>51.40980202601678</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>311.8156604418726</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>6.893730392284766</v>
       </c>
       <c r="M14" t="n">
         <v>20.62628229546486</v>
       </c>
       <c r="N14" t="n">
-        <v>280.0090100773071</v>
+        <v>22.84750417118771</v>
       </c>
       <c r="O14" t="n">
-        <v>16.11891616322698</v>
+        <v>184.6677385208473</v>
       </c>
       <c r="P14" t="n">
         <v>522.0635703700256</v>
@@ -35670,7 +35670,7 @@
         <v>394.4637941714714</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>81.71895315621458</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>227.5554046436553</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2259973797005728</v>
+        <v>247.9055199877798</v>
       </c>
       <c r="L15" t="n">
         <v>19.25401183937943</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>30.38724246123308</v>
       </c>
       <c r="N15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
+        <v>24.83648087108259</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P15" t="n">
-        <v>457.4923074900001</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>397.6874252499585</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>51.40980202601678</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>311.8156604418726</v>
+        <v>10.95328927223433</v>
       </c>
       <c r="K17" t="n">
         <v>626.1201079238223</v>
       </c>
       <c r="L17" t="n">
-        <v>439.5870968689109</v>
+        <v>822.1684211947639</v>
       </c>
       <c r="M17" t="n">
         <v>898.076699673474</v>
@@ -35907,7 +35907,7 @@
         <v>394.4637941714714</v>
       </c>
       <c r="R17" t="n">
-        <v>81.71895315621458</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>227.5554046436553</v>
       </c>
       <c r="K18" t="n">
         <v>516.462140028254</v>
@@ -35974,19 +35974,19 @@
         <v>30.38724246123308</v>
       </c>
       <c r="N18" t="n">
-        <v>972.7622627150877</v>
+        <v>37.08594799647116</v>
       </c>
       <c r="O18" t="n">
-        <v>94.58546164834608</v>
+        <v>129.6572453121329</v>
       </c>
       <c r="P18" t="n">
-        <v>12.02448387689824</v>
+        <v>633.6638082620556</v>
       </c>
       <c r="Q18" t="n">
         <v>397.6874252499585</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>51.40980202601678</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>311.8156604418726</v>
       </c>
       <c r="K20" t="n">
-        <v>243.5387835979692</v>
+        <v>626.1201079238223</v>
       </c>
       <c r="L20" t="n">
         <v>822.1684211947639</v>
       </c>
       <c r="M20" t="n">
-        <v>898.076699673474</v>
+        <v>515.4953753476208</v>
       </c>
       <c r="N20" t="n">
         <v>876.5487006233807</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.183240302311946</v>
       </c>
       <c r="K21" t="n">
         <v>516.462140028254</v>
@@ -36214,16 +36214,16 @@
         <v>37.08594799647116</v>
       </c>
       <c r="O21" t="n">
-        <v>704.068847584569</v>
+        <v>24.83648087108259</v>
       </c>
       <c r="P21" t="n">
-        <v>12.02448387689824</v>
+        <v>633.6638082620556</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>51.40980202601678</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>10.95328927223433</v>
+        <v>311.8156604418726</v>
       </c>
       <c r="K23" t="n">
-        <v>626.1201079238223</v>
+        <v>243.5387835979692</v>
       </c>
       <c r="L23" t="n">
         <v>822.1684211947639</v>
@@ -36381,7 +36381,7 @@
         <v>394.4637941714714</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>81.71895315621458</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>227.5554046436553</v>
       </c>
       <c r="K24" t="n">
-        <v>74.84226161547639</v>
+        <v>516.462140028254</v>
       </c>
       <c r="L24" t="n">
         <v>19.25401183937943</v>
       </c>
       <c r="M24" t="n">
-        <v>939.443526901233</v>
+        <v>30.38724246123308</v>
       </c>
       <c r="N24" t="n">
-        <v>972.7622627150877</v>
+        <v>37.08594799647116</v>
       </c>
       <c r="O24" t="n">
-        <v>24.83648087108259</v>
+        <v>793.6557280992587</v>
       </c>
       <c r="P24" t="n">
         <v>12.02448387689824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>355.3282668479902</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>51.40980202601678</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36609,13 +36609,13 @@
         <v>876.5487006233807</v>
       </c>
       <c r="O26" t="n">
-        <v>759.440869988106</v>
+        <v>376.8595456622527</v>
       </c>
       <c r="P26" t="n">
         <v>627.7941545658068</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.88246984561787</v>
+        <v>394.4637941714714</v>
       </c>
       <c r="R26" t="n">
         <v>81.71895315621458</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>227.5554046436553</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2259973797005728</v>
+        <v>516.462140028254</v>
       </c>
       <c r="L27" t="n">
-        <v>19.25401183937943</v>
+        <v>743.1343658717318</v>
       </c>
       <c r="M27" t="n">
         <v>30.38724246123308</v>
       </c>
       <c r="N27" t="n">
-        <v>972.7622627150877</v>
+        <v>39.66568279032652</v>
       </c>
       <c r="O27" t="n">
-        <v>793.6557280992587</v>
+        <v>24.83648087108259</v>
       </c>
       <c r="P27" t="n">
-        <v>226.8777853244976</v>
+        <v>12.02448387689824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>397.6874252499585</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>51.40980202601678</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>876.5487006233807</v>
       </c>
       <c r="O29" t="n">
-        <v>376.8595456622527</v>
+        <v>759.440869988106</v>
       </c>
       <c r="P29" t="n">
-        <v>627.7941545658068</v>
+        <v>245.2128302399532</v>
       </c>
       <c r="Q29" t="n">
         <v>394.4637941714714</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>227.5554046436553</v>
       </c>
       <c r="K30" t="n">
-        <v>286.6382223017404</v>
+        <v>516.462140028254</v>
       </c>
       <c r="L30" t="n">
-        <v>743.1343658717318</v>
+        <v>19.25401183937943</v>
       </c>
       <c r="M30" t="n">
-        <v>939.443526901233</v>
+        <v>30.38724246123308</v>
       </c>
       <c r="N30" t="n">
         <v>37.08594799647116</v>
       </c>
       <c r="O30" t="n">
-        <v>24.83648087108259</v>
+        <v>181.0670473381497</v>
       </c>
       <c r="P30" t="n">
-        <v>12.02448387689824</v>
+        <v>633.6638082620556</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>397.6874252499585</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.95328927223433</v>
+        <v>311.8156604418726</v>
       </c>
       <c r="K32" t="n">
         <v>626.1201079238223</v>
@@ -37086,13 +37086,13 @@
         <v>759.440869988106</v>
       </c>
       <c r="P32" t="n">
-        <v>627.7941545658068</v>
+        <v>245.2128302399532</v>
       </c>
       <c r="Q32" t="n">
         <v>394.4637941714714</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>81.71895315621458</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>227.5554046436553</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2259973797005728</v>
+        <v>516.462140028254</v>
       </c>
       <c r="L36" t="n">
-        <v>19.25401183937943</v>
+        <v>124.0747762804298</v>
       </c>
       <c r="M36" t="n">
-        <v>939.443526901233</v>
+        <v>30.38724246123308</v>
       </c>
       <c r="N36" t="n">
-        <v>972.7622627150877</v>
+        <v>37.08594799647116</v>
       </c>
       <c r="O36" t="n">
-        <v>99.45274510685825</v>
+        <v>24.83648087108259</v>
       </c>
       <c r="P36" t="n">
-        <v>12.02448387689824</v>
+        <v>633.6638082620556</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>397.6874252499585</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>51.40980202601678</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>10.95328927223524</v>
       </c>
       <c r="K38" t="n">
         <v>626.1201079238223</v>
@@ -37560,13 +37560,13 @@
         <v>759.440869988106</v>
       </c>
       <c r="P38" t="n">
-        <v>557.0284906818273</v>
+        <v>627.7941545658068</v>
       </c>
       <c r="Q38" t="n">
         <v>394.4637941714714</v>
       </c>
       <c r="R38" t="n">
-        <v>81.71895315621458</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0.2259973797005728</v>
       </c>
       <c r="L39" t="n">
-        <v>19.25401183937943</v>
+        <v>743.1343658717318</v>
       </c>
       <c r="M39" t="n">
-        <v>939.443526901233</v>
+        <v>30.38724246123308</v>
       </c>
       <c r="N39" t="n">
-        <v>972.7622627150877</v>
+        <v>37.08594799647116</v>
       </c>
       <c r="O39" t="n">
-        <v>99.45274510685825</v>
+        <v>793.6557280992587</v>
       </c>
       <c r="P39" t="n">
-        <v>12.02448387689824</v>
+        <v>438.6737460107616</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>311.8156604418726</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700258</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700258</v>
+        <v>175.4425527499053</v>
       </c>
       <c r="M41" t="n">
         <v>20.62628229546486</v>
       </c>
       <c r="N41" t="n">
+        <v>22.84750417118771</v>
+      </c>
+      <c r="O41" t="n">
+        <v>16.11891616322698</v>
+      </c>
+      <c r="P41" t="n">
         <v>522.0635703700258</v>
       </c>
-      <c r="O41" t="n">
-        <v>522.0635703700258</v>
-      </c>
-      <c r="P41" t="n">
-        <v>168.52815004198</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>394.4637941714714</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.71895315621458</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>516.462140028254</v>
       </c>
       <c r="L42" t="n">
-        <v>19.25401183937943</v>
+        <v>522.0635703700258</v>
       </c>
       <c r="M42" t="n">
         <v>30.38724246123308</v>
       </c>
       <c r="N42" t="n">
-        <v>37.08594799647116</v>
+        <v>212.6066160690643</v>
       </c>
       <c r="O42" t="n">
-        <v>241.2574832041622</v>
+        <v>522.0635703700258</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700258</v>
+        <v>12.02448387689824</v>
       </c>
       <c r="Q42" t="n">
-        <v>397.6874252499585</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>51.40980202601678</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3574092308185</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>6.893730392284766</v>
+        <v>522.0635703700258</v>
       </c>
       <c r="M44" t="n">
         <v>522.0635703700258</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700258</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O44" t="n">
         <v>522.0635703700258</v>
@@ -38040,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.71895315621458</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>227.5554046436553</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2259973797005728</v>
+        <v>516.462140028254</v>
       </c>
       <c r="L45" t="n">
         <v>522.0635703700258</v>
@@ -38107,16 +38107,16 @@
         <v>30.38724246123308</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700258</v>
+        <v>37.08594799647116</v>
       </c>
       <c r="O45" t="n">
-        <v>167.3938701984732</v>
+        <v>24.83648087108259</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700258</v>
+        <v>235.6750141724592</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>397.6874252499585</v>
       </c>
       <c r="R45" t="n">
         <v>51.40980202601678</v>
